--- a/approaches/agora_data/our_ground_truth/Spotify getArtistAlbums/response_property_constraints.xlsx
+++ b/approaches/agora_data/our_ground_truth/Spotify getArtistAlbums/response_property_constraints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThacSi\API-Testing\Eval\agora_data\our_ground_truth\Spotify getArtistAlbums\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E953181D-4501-4624-B84D-8E33A23488FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427FA933-8CA1-4201-931B-5274617E4EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1695" windowWidth="23235" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="response_property_constraints" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>operation</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>The markets in which the album is available: ISO 3166-1 alpha-2 country codes. Note that an album is considered available in a market when at least 1 of its tracks is available in that market</t>
+  </si>
+  <si>
+    <t>The Spotify URI for the artist, schema: {"type": "string", "format": "uri"}</t>
+  </si>
+  <si>
+    <t>track-simple</t>
+  </si>
+  <si>
+    <t>The object type: 'track'</t>
+  </si>
+  <si>
+    <t>The object type: 'album'</t>
   </si>
 </sst>
 </file>
@@ -956,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,6 +1192,48 @@
         <v>31</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
